--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/TermDepositPricer.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/TermDepositPricer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Product Pricers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Product Pricers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD399745-6C2F-46AE-B0CC-AC73FD1842AD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4199FA-3E26-4136-8501-2C78329196D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="375" windowWidth="28515" windowHeight="12300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GetInfo &amp; GetInstrumentInfo" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,15 @@
   <definedNames>
     <definedName name="CurveList">'GetInfo &amp; GetInstrumentInfo'!$A$8:$A$122</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcMode="manual" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1592,7 +1600,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="str">
         <f>_xll.HLV5r3.Financial.Cache.GetCurveEngineVersionInfo()</f>
-        <v>Version: FpML.V5r3 v1.0 Built on : 27/04/2018, 8:03 AM</v>
+        <v>Version: FpML.V5r3 v1.0 Built on : 28/06/2019, 9:25 AM</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1640,7 +1648,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-1M</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>57</v>
@@ -1649,499 +1657,499 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-2M</v>
+        <v>Market.QR_LIVE.DiscountCurve.EUR-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-1M</v>
+        <v>Market.QR_LIVE.DiscountCurve.GBP-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-3M</v>
+        <v>Market.QR_LIVE.DiscountCurve.JPY-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-6M</v>
+        <v>Market.QR_LIVE.DiscountCurve.NZD-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-EUR</v>
       </c>
       <c r="C15" s="1" t="str">
         <f t="array" ref="C15:D56">_xll.HLV5r3.Financial.Cache.GetQuotedAssetSet( C9)</f>
-        <v>USD-Deposit-1D</v>
+        <v>AUD-XccyDepo-1D</v>
       </c>
       <c r="D15" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F15" s="1" t="str">
         <f t="array" ref="F15:G56">_xll.HLV5r3.Financial.Cache.GetQuotedAssetSet( A11)</f>
-        <v>EUR-Deposit-1D</v>
+        <v>GBP-Deposit-1D</v>
       </c>
       <c r="G15" s="30">
-        <v>4.0000000000000001E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-GBP</v>
       </c>
       <c r="C16" s="1" t="str">
-        <v>USD-Deposit-1M</v>
+        <v>AUD-XccyDepo-TN</v>
       </c>
       <c r="D16" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F16" s="1" t="str">
-        <v>EUR-Deposit-2D</v>
+        <v>GBP-Deposit-1W</v>
       </c>
       <c r="G16" s="30">
-        <v>4.0000000000000001E-3</v>
+        <v>5.3499999999999997E-3</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-JPY</v>
       </c>
       <c r="C17" s="1" t="str">
-        <v>USD-Deposit-2M</v>
+        <v>AUD-XccyDepo-1W</v>
       </c>
       <c r="D17" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F17" s="1" t="str">
-        <v>EUR-Deposit-1W</v>
+        <v>GBP-Deposit-1M</v>
       </c>
       <c r="G17" s="30">
-        <v>4.5999999999999999E-3</v>
+        <v>5.7499999999999999E-3</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-NZD</v>
       </c>
       <c r="C18" s="1" t="str">
-        <v>USD-Deposit-3M</v>
+        <v>AUD-XccyDepo-2W</v>
       </c>
       <c r="D18" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F18" s="1" t="str">
-        <v>EUR-Deposit-1M</v>
+        <v>GBP-Deposit-2M</v>
       </c>
       <c r="G18" s="30">
-        <v>5.4000000000000003E-3</v>
+        <v>7.2500000000000004E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.FxCurve.EUR-USD</v>
       </c>
       <c r="C19" s="1" t="str">
-        <v>USD-IRSwap-4Y</v>
+        <v>AUD-XccyDepo-1M</v>
       </c>
       <c r="D19" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F19" s="1" t="str">
-        <v>EUR-Deposit-2M</v>
+        <v>GBP-Deposit-3M</v>
       </c>
       <c r="G19" s="30">
-        <v>6.1999999999999998E-3</v>
+        <v>7.2500000000000004E-3</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.FxCurve.GBP-USD</v>
       </c>
       <c r="C20" s="1" t="str">
-        <v>USD-IRSwap-5Y</v>
+        <v>AUD-XccyDepo-2M</v>
       </c>
       <c r="D20" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F20" s="1" t="str">
-        <v>EUR-Deposit-3M</v>
+        <v>GBP-IRSwap-3Y</v>
       </c>
       <c r="G20" s="30">
-        <v>8.0000000000000002E-3</v>
+        <v>1.5375E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-1M</v>
+        <v>Market.QR_LIVE.FxCurve.JPY-USD</v>
       </c>
       <c r="C21" s="1" t="str">
-        <v>USD-IRSwap-6Y</v>
+        <v>AUD-XccyDepo-3M</v>
       </c>
       <c r="D21" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F21" s="1" t="str">
-        <v>EUR-IRSwap-3Y</v>
+        <v>GBP-IRSwap-4Y</v>
       </c>
       <c r="G21" s="30">
-        <v>1.435E-2</v>
+        <v>1.8175E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-3M</v>
+        <v>Market.QR_LIVE.FxCurve.NZD-USD</v>
       </c>
       <c r="C22" s="1" t="str">
-        <v>USD-IRSwap-7Y</v>
+        <v>AUD-XccySwap-6M</v>
       </c>
       <c r="D22" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F22" s="1" t="str">
-        <v>EUR-IRSwap-4Y</v>
+        <v>GBP-IRSwap-5Y</v>
       </c>
       <c r="G22" s="30">
-        <v>1.6109999999999999E-2</v>
+        <v>2.0750000000000001E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND</v>
       </c>
       <c r="C23" s="1" t="str">
-        <v>USD-IRSwap-8Y</v>
+        <v>AUD-XccySwap-9M</v>
       </c>
       <c r="D23" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F23" s="1" t="str">
-        <v>EUR-IRSwap-5Y</v>
+        <v>GBP-IRSwap-7Y</v>
       </c>
       <c r="G23" s="30">
-        <v>1.789E-2</v>
+        <v>2.512E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-2M</v>
       </c>
       <c r="C24" s="1" t="str">
-        <v>USD-IRSwap-9Y</v>
+        <v>AUD-XccySwap-1Y</v>
       </c>
       <c r="D24" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F24" s="1" t="str">
-        <v>EUR-IRSwap-6Y</v>
+        <v>GBP-IRSwap-10Y</v>
       </c>
       <c r="G24" s="30">
-        <v>1.9529999999999999E-2</v>
+        <v>2.98E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-1M</v>
       </c>
       <c r="C25" s="1" t="str">
-        <v>USD-IRSwap-10Y</v>
+        <v>AUD-XccySwap-2Y</v>
       </c>
       <c r="D25" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F25" s="1" t="str">
-        <v>EUR-IRSwap-7Y</v>
+        <v>GBP-IRSwap-12Y</v>
       </c>
       <c r="G25" s="30">
-        <v>2.094E-2</v>
+        <v>3.1879999999999999E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-3M</v>
       </c>
       <c r="C26" s="1" t="str">
-        <v>USD-IRSwap-12Y</v>
+        <v>AUD-XccySwap-3Y</v>
       </c>
       <c r="D26" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F26" s="1" t="str">
-        <v>EUR-IRSwap-8Y</v>
+        <v>GBP-IRSwap-15Y</v>
       </c>
       <c r="G26" s="30">
-        <v>2.2159999999999999E-2</v>
+        <v>3.3849999999999998E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-6M</v>
       </c>
       <c r="C27" s="1" t="str">
-        <v>USD-IRSwap-15Y</v>
+        <v>AUD-XccySwap-4Y</v>
       </c>
       <c r="D27" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F27" s="1" t="str">
-        <v>EUR-IRSwap-9Y</v>
+        <v>GBP-IRSwap-20Y</v>
       </c>
       <c r="G27" s="30">
-        <v>2.3199999999999998E-2</v>
+        <v>3.5400000000000001E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-1M</v>
       </c>
       <c r="C28" s="1" t="str">
-        <v>USD-IRSwap-20Y</v>
+        <v>AUD-XccySwap-5Y</v>
       </c>
       <c r="D28" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F28" s="1" t="str">
-        <v>EUR-IRSwap-10Y</v>
+        <v>GBP-IRSwap-25Y</v>
       </c>
       <c r="G28" s="30">
-        <v>2.4140000000000002E-2</v>
+        <v>3.5950000000000003E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-3M</v>
       </c>
       <c r="C29" s="1" t="str">
-        <v>USD-IRFuture-ED-1</v>
+        <v>AUD-XccySwap-6Y</v>
       </c>
       <c r="D29" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F29" s="1" t="str">
-        <v>EUR-IRSwap-12Y</v>
+        <v>GBP-IRSwap-30Y</v>
       </c>
       <c r="G29" s="30">
-        <v>2.5590000000000002E-2</v>
+        <v>3.6124999999999997E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-6M</v>
       </c>
       <c r="C30" s="1" t="str">
-        <v>USD-IRFuture-ED-2</v>
+        <v>AUD-XccySwap-7Y</v>
       </c>
       <c r="D30" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F30" s="1" t="str">
-        <v>EUR-IRSwap-15Y</v>
+        <v>GBP-IRFuture-L-1</v>
       </c>
       <c r="G30" s="1">
-        <v>2.691E-2</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.CHF-USD</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-3M</v>
       </c>
       <c r="C31" s="1" t="str">
-        <v>USD-IRFuture-ED-3</v>
+        <v>AUD-XccySwap-8Y</v>
       </c>
       <c r="D31" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F31" s="1" t="str">
-        <v>EUR-IRSwap-20Y</v>
+        <v>GBP-IRFuture-L-2</v>
       </c>
       <c r="G31" s="1">
-        <v>2.784E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="7" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.CHF-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-1M</v>
       </c>
       <c r="C32" s="1" t="str">
-        <v>USD-IRFuture-ED-4</v>
+        <v>AUD-XccySwap-9Y</v>
       </c>
       <c r="D32" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F32" s="1" t="str">
-        <v>EUR-IRSwap-25Y</v>
+        <v>GBP-IRFuture-L-3</v>
       </c>
       <c r="G32" s="1">
-        <v>2.7609999999999999E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.NZD-USD</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-3M</v>
       </c>
       <c r="C33" s="1" t="str">
-        <v>USD-IRFuture-ED-5</v>
+        <v>AUD-XccySwap-10Y</v>
       </c>
       <c r="D33" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F33" s="1" t="str">
-        <v>EUR-IRSwap-30Y</v>
+        <v>GBP-IRFuture-L-4</v>
       </c>
       <c r="G33" s="1">
-        <v>2.6669999999999999E-2</v>
+        <v>9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.JPY-USD</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-6M</v>
       </c>
       <c r="C34" s="1" t="str">
-        <v>USD-IRFuture-ED-6</v>
+        <v>AUD-XccySwap-12Y</v>
       </c>
       <c r="D34" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F34" s="1" t="str">
-        <v>EUR-IRFuture-ER-1</v>
+        <v>GBP-IRFuture-L-5</v>
       </c>
       <c r="G34" s="1">
-        <v>8.8500000000000002E-3</v>
+        <v>1.03E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.GBP-USD</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-1M</v>
       </c>
       <c r="C35" s="1" t="str">
-        <v>USD-IRFuture-ED-7</v>
+        <v>AUD-XccySwap-15Y</v>
       </c>
       <c r="D35" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F35" s="1" t="str">
-        <v>EUR-IRFuture-ER-2</v>
+        <v>GBP-IRFuture-L-6</v>
       </c>
       <c r="G35" s="1">
-        <v>9.3500000000000007E-3</v>
+        <v>1.1900000000000001E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.EUR-USD</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-3M</v>
       </c>
       <c r="C36" s="1" t="str">
-        <v>USD-IRFuture-ED-8</v>
+        <v>AUD-XccySwap-20Y</v>
       </c>
       <c r="D36" s="28">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F36" s="1" t="str">
-        <v>EUR-IRFuture-ER-3</v>
+        <v>GBP-IRFuture-L-7</v>
       </c>
       <c r="G36" s="1">
-        <v>9.9000000000000008E-3</v>
+        <v>1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-NZD</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-6M</v>
       </c>
       <c r="C37" s="1" t="str">
-        <v>USD-IRFuture-ED-9</v>
+        <v>AUD-XccySwap-25Y</v>
       </c>
       <c r="D37" s="1">
-        <v>2.5065E-2</v>
+        <v>0.05</v>
       </c>
       <c r="F37" s="1" t="str">
-        <v>EUR-IRFuture-ER-4</v>
+        <v>GBP-IRFuture-L-8</v>
       </c>
       <c r="G37" s="1">
-        <v>1.035E-2</v>
+        <v>1.54E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-JPY</v>
+        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-1M</v>
       </c>
       <c r="C38" s="1" t="str">
-        <v>USD-IRFuture-ED-10</v>
+        <v>AUD-XccySwap-30Y</v>
       </c>
       <c r="D38" s="1">
-        <v>2.5065E-2</v>
-      </c>
-      <c r="F38" s="1" t="str">
-        <v>EUR-IRFuture-ER-5</v>
-      </c>
-      <c r="G38" s="1">
-        <v>1.09E-2</v>
+        <v>0.05</v>
+      </c>
+      <c r="F38" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G38" s="1" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-GBP</v>
-      </c>
-      <c r="C39" s="1" t="str">
-        <v>USD-IRFuture-ED-11</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2.5065E-2</v>
-      </c>
-      <c r="F39" s="1" t="str">
-        <v>EUR-IRFuture-ER-6</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1.1849999999999999E-2</v>
+        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-3M</v>
+      </c>
+      <c r="C39" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D39" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F39" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G39" s="1" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="7" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-EUR</v>
-      </c>
-      <c r="C40" s="1" t="str">
-        <v>USD-IRFuture-ED-12</v>
-      </c>
-      <c r="D40" s="1">
-        <v>2.5065E-2</v>
-      </c>
-      <c r="F40" s="1" t="str">
-        <v>EUR-IRFuture-ER-7</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1.2500000000000001E-2</v>
+        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-6M</v>
+      </c>
+      <c r="C40" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D40" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F40" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G40" s="1" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="7" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.NZD-LIBOR-SENIOR</v>
-      </c>
-      <c r="C41" s="1" t="str">
-        <v>AUDUSD-FxForward-0D</v>
-      </c>
-      <c r="D41" s="1">
-        <v>-2146826259</v>
-      </c>
-      <c r="F41" s="1" t="str">
-        <v>EUR-IRFuture-ER-8</v>
-      </c>
-      <c r="G41" s="1">
-        <v>1.3350000000000001E-2</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-1M</v>
+      </c>
+      <c r="C41" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D41" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F41" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G41" s="1" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="7" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.JPY-LIBOR-SENIOR</v>
-      </c>
-      <c r="C42" s="1" t="str">
-        <v>AUDUSD-FxForward-1D</v>
-      </c>
-      <c r="D42" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.DiscountCurve.CHF-LIBOR-SENIOR</v>
+      </c>
+      <c r="C42" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D42" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F42" s="1" t="e">
         <v>#N/A</v>
@@ -2152,13 +2160,13 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="7" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.GBP-LIBOR-SENIOR</v>
-      </c>
-      <c r="C43" s="1" t="str">
-        <v>AUDUSD-FxSpot-SP</v>
-      </c>
-      <c r="D43" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.FxCurve.CHF-USD</v>
+      </c>
+      <c r="C43" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D43" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F43" s="1" t="e">
         <v>#N/A</v>
@@ -2169,13 +2177,13 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="7" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.EUR-LIBOR-SENIOR</v>
-      </c>
-      <c r="C44" s="1" t="str">
-        <v>AUDUSD-FxForward-1M</v>
-      </c>
-      <c r="D44" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-6M</v>
+      </c>
+      <c r="C44" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D44" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F44" s="1" t="e">
         <v>#N/A</v>
@@ -2186,13 +2194,13 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-1M</v>
-      </c>
-      <c r="C45" s="1" t="str">
-        <v>AUDUSD-FxForward-2M</v>
-      </c>
-      <c r="D45" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-1M</v>
+      </c>
+      <c r="C45" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D45" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F45" s="1" t="e">
         <v>#N/A</v>
@@ -2203,13 +2211,13 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
-      </c>
-      <c r="C46" s="1" t="str">
-        <v>AUDUSD-FxForward-3M</v>
-      </c>
-      <c r="D46" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-6M</v>
+      </c>
+      <c r="C46" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D46" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F46" s="1" t="e">
         <v>#N/A</v>
@@ -2220,13 +2228,13 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M</v>
-      </c>
-      <c r="C47" s="1" t="str">
-        <v>AUDUSD-FxForward-6M</v>
-      </c>
-      <c r="D47" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
+      </c>
+      <c r="C47" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D47" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F47" s="1" t="e">
         <v>#N/A</v>
@@ -2237,13 +2245,13 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
-      </c>
-      <c r="C48" s="1" t="str">
-        <v>AUDUSD-FxForward-9M</v>
-      </c>
-      <c r="D48" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M</v>
+      </c>
+      <c r="C48" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D48" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F48" s="1" t="e">
         <v>#N/A</v>
@@ -2254,13 +2262,13 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-5Y</v>
-      </c>
-      <c r="C49" s="1" t="str">
-        <v>AUDUSD-FxForward-1Y</v>
-      </c>
-      <c r="D49" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
+      </c>
+      <c r="C49" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D49" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F49" s="1" t="e">
         <v>#N/A</v>
@@ -2271,13 +2279,13 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-10Y</v>
-      </c>
-      <c r="C50" s="1" t="str">
-        <v>AUDUSD-FxForward-2Y</v>
-      </c>
-      <c r="D50" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-5Y</v>
+      </c>
+      <c r="C50" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D50" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F50" s="1" t="e">
         <v>#N/A</v>
@@ -2288,13 +2296,13 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-1M</v>
-      </c>
-      <c r="C51" s="1" t="str">
-        <v>AUDUSD-FxForward-3Y</v>
-      </c>
-      <c r="D51" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-10Y</v>
+      </c>
+      <c r="C51" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D51" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F51" s="1" t="e">
         <v>#N/A</v>
@@ -2305,13 +2313,13 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-6M</v>
-      </c>
-      <c r="C52" s="1" t="str">
-        <v>AUDUSD-FxForward-4Y</v>
-      </c>
-      <c r="D52" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-1M</v>
+      </c>
+      <c r="C52" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D52" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F52" s="1" t="e">
         <v>#N/A</v>
@@ -2322,13 +2330,13 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-3M</v>
-      </c>
-      <c r="C53" s="1" t="str">
-        <v>AUDUSD-FxForward-5Y</v>
-      </c>
-      <c r="D53" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-6M</v>
+      </c>
+      <c r="C53" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D53" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F53" s="1" t="e">
         <v>#N/A</v>
@@ -2339,13 +2347,13 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-6M</v>
-      </c>
-      <c r="C54" s="1" t="str">
-        <v>AUDUSD-FxForward-6Y</v>
-      </c>
-      <c r="D54" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-3M</v>
+      </c>
+      <c r="C54" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D54" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F54" s="1" t="e">
         <v>#N/A</v>
@@ -2356,13 +2364,13 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-3M</v>
-      </c>
-      <c r="C55" s="1" t="str">
-        <v>AUDUSD-FxForward-8Y</v>
-      </c>
-      <c r="D55" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-6M</v>
+      </c>
+      <c r="C55" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D55" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F55" s="1" t="e">
         <v>#N/A</v>
@@ -2373,13 +2381,13 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-1M</v>
-      </c>
-      <c r="C56" s="1" t="str">
-        <v>AUDUSD-FxForward-9Y</v>
-      </c>
-      <c r="D56" s="1">
-        <v>-2146826259</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-3M</v>
+      </c>
+      <c r="C56" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D56" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F56" s="1" t="e">
         <v>#N/A</v>
@@ -2390,147 +2398,147 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.EUR-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-1M</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1D</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.EUR-IRSwap-5Y</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1W</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1M</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2W</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2M</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-3M</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-1</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-2</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-1</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-3</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-2</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-4</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-3</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-5</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-4</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-6</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-5</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-7</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-6</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-8</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-7</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-3Y</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-8</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-4Y</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-3Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-5Y</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-4Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-6Y</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-7Y</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-6Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-8Y</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-7Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-9Y</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-8Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-10Y</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-9Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-15Y</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-10Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-20Y</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-15Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1D</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-20Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1W</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2W</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="7" t="str">
-        <v>Market.QR_LIVE.RateBasisCurve.AUD-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.ClearedRateCurve.USD-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="7" t="str">
-        <v>Market.QR_LIVE.ClearedRateCurve.USD-LIBOR-ISDA-6M</v>
+        <v>Market.QR_LIVE.RateBasisCurve.AUD-LIBOR-BBA-1M</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M</v>
       </c>
     </row>
     <row r="86" spans="1:1">
@@ -2540,22 +2548,22 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-1M</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-3M</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-Federal Funds-H15-OIS-COMPOUND-1D</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-1M</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.USD-Federal Funds-H15-OIS-COMPOUND-1D</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -2565,77 +2573,77 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="7" t="str">
-        <v>Market.QR_LIVE.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="7" t="str">
-        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASX-IR</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="7" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND-1D</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-IRSwap-1Y</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASX-IR</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-BBR-BBSW-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND-1D</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-Xibor-3M</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-BBR-BBSW-1M</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="7" t="str">
-        <v>Market.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap-SydneySwapDesk</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-IRSwap-1Y</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-1Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-2Y</v>
+        <v>Market.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap-SydneySwapDesk</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-3Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-20Y</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-4Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-15Y</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-6Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-9Y</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="7" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-7Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-8Y</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -2769,8 +2777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:W50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2787,7 +2795,7 @@
     <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="67.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="78.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.42578125" style="1" customWidth="1"/>
     <col min="19" max="19" width="21" style="1" bestFit="1" customWidth="1"/>
@@ -2870,15 +2878,15 @@
       </c>
       <c r="F3" s="13">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G3" s="13">
         <f ca="1">F3</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="H3" s="13">
         <f ca="1">F3+90</f>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>27</v>
@@ -2898,7 +2906,7 @@
       </c>
       <c r="N3" s="12" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M3,D3,$S$2:$S$5,I3,F3,$V$3:$W$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0001.LOCAL_USER.2018-04-27</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0001.LOCAL_USER.2019-06-28</v>
       </c>
       <c r="O3" s="14" t="str">
         <f t="array" aca="1" ref="O3:R4" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N3))</f>
@@ -2944,11 +2952,11 @@
       <c r="N4" s="18"/>
       <c r="O4" s="24">
         <f ca="1"/>
-        <v>2.5419902510404907E-2</v>
+        <v>5.0013515322262288E-2</v>
       </c>
       <c r="P4" s="16">
         <f ca="1"/>
-        <v>-5610.9735254465859</v>
+        <v>412.94337749126998</v>
       </c>
       <c r="Q4" s="16">
         <f ca="1"/>
@@ -2956,7 +2964,7 @@
       </c>
       <c r="R4" s="16">
         <f ca="1"/>
-        <v>-24.6415232853563</v>
+        <v>-24.348180820181152</v>
       </c>
       <c r="S4" s="11" t="s">
         <v>51</v>
@@ -2984,15 +2992,15 @@
       </c>
       <c r="F5" s="13">
         <f ca="1">F3</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G5" s="13">
         <f ca="1">G3</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="H5" s="13">
         <f ca="1">H3+5</f>
-        <v>43312</v>
+        <v>43739</v>
       </c>
       <c r="I5" s="12" t="str">
         <f>I3</f>
@@ -3015,7 +3023,7 @@
       </c>
       <c r="N5" s="12" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M5,D5,$S$2:$S$5,I5,F5,$V$3:$W$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0002.LOCAL_USER.2018-04-27</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0002.LOCAL_USER.2019-06-28</v>
       </c>
       <c r="O5" s="14" t="str">
         <f t="array" aca="1" ref="O5:R6" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N5))</f>
@@ -3057,11 +3065,11 @@
       <c r="N6" s="18"/>
       <c r="O6" s="24">
         <f ca="1"/>
-        <v>2.5419920447284364E-2</v>
+        <v>5.0013492027959669E-2</v>
       </c>
       <c r="P6" s="16">
         <f ca="1"/>
-        <v>-7415.0448718884836</v>
+        <v>214.38531805008964</v>
       </c>
       <c r="Q6" s="16">
         <f ca="1"/>
@@ -3069,7 +3077,7 @@
       </c>
       <c r="R6" s="16">
         <f ca="1"/>
-        <v>-31.23044477061519</v>
+        <v>-30.848729785324462</v>
       </c>
       <c r="V6" s="1" t="str">
         <f ca="1"/>
@@ -3094,15 +3102,15 @@
       </c>
       <c r="F7" s="13">
         <f ca="1">F5</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G7" s="13">
         <f ca="1">G5</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="H7" s="13">
         <f ca="1">H5+5</f>
-        <v>43317</v>
+        <v>43744</v>
       </c>
       <c r="I7" s="12" t="str">
         <f>I5</f>
@@ -3125,7 +3133,7 @@
       </c>
       <c r="N7" s="12" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M7,D7,$S$2:$S$5,I7,F7,$V$3:$W$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0003.LOCAL_USER.2018-04-27</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0003.LOCAL_USER.2019-06-28</v>
       </c>
       <c r="O7" s="14" t="str">
         <f t="array" aca="1" ref="O7:R8" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N7))</f>
@@ -3149,7 +3157,7 @@
       </c>
       <c r="T7" s="19">
         <f ca="1"/>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="V7" s="1" t="str">
         <f ca="1"/>
@@ -3172,11 +3180,11 @@
       <c r="N8" s="18"/>
       <c r="O8" s="24">
         <f ca="1"/>
-        <v>2.542378608030936E-2</v>
+        <v>5.0036464225035937E-2</v>
       </c>
       <c r="P8" s="16">
         <f ca="1"/>
-        <v>-9753.4006717042193</v>
+        <v>-109.6271075890723</v>
       </c>
       <c r="Q8" s="16">
         <f ca="1"/>
@@ -3184,7 +3192,7 @@
       </c>
       <c r="R8" s="16">
         <f ca="1"/>
-        <v>-39.472507945922203</v>
+        <v>-38.977139113829566</v>
       </c>
       <c r="S8" s="1" t="str">
         <f ca="1"/>
@@ -3217,15 +3225,15 @@
       </c>
       <c r="F9" s="13">
         <f ca="1">F7</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G9" s="13">
         <f ca="1">G7</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="H9" s="13">
         <f ca="1">H7+5</f>
-        <v>43322</v>
+        <v>43749</v>
       </c>
       <c r="I9" s="12" t="str">
         <f>I7</f>
@@ -3248,7 +3256,7 @@
       </c>
       <c r="N9" s="12" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M9,D9,$S$2:$S$5,I9,F9,$V$3:$W$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0004.LOCAL_USER.2018-04-27</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0004.LOCAL_USER.2019-06-28</v>
       </c>
       <c r="O9" s="14" t="str">
         <f t="array" aca="1" ref="O9:R10" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N9))</f>
@@ -3272,7 +3280,7 @@
       </c>
       <c r="T9" s="19">
         <f ca="1"/>
-        <v>43307</v>
+        <v>43734</v>
       </c>
       <c r="V9" s="1" t="str">
         <f ca="1"/>
@@ -3295,11 +3303,11 @@
       <c r="N10" s="18"/>
       <c r="O10" s="24">
         <f ca="1"/>
-        <v>2.542861511939111E-2</v>
+        <v>5.0065208897721869E-2</v>
       </c>
       <c r="P10" s="16">
         <f ca="1"/>
-        <v>-12776.121914641404</v>
+        <v>-613.98791057916719</v>
       </c>
       <c r="Q10" s="16">
         <f ca="1"/>
@@ -3307,7 +3315,7 @@
       </c>
       <c r="R10" s="16">
         <f ca="1"/>
-        <v>-49.766302494746249</v>
+        <v>-49.125347760405717</v>
       </c>
       <c r="S10" s="1" t="str">
         <f ca="1"/>
@@ -3340,15 +3348,15 @@
       </c>
       <c r="F11" s="13">
         <f ca="1">F9</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G11" s="13">
         <f ca="1">G9</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="H11" s="13">
         <f ca="1">H9+5</f>
-        <v>43327</v>
+        <v>43754</v>
       </c>
       <c r="I11" s="12" t="str">
         <f>I9</f>
@@ -3371,7 +3379,7 @@
       </c>
       <c r="N11" s="12" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M11,D11,$S$2:$S$5,I11,F11,$V$3:$W$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0005.LOCAL_USER.2018-04-27</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0005.LOCAL_USER.2019-06-28</v>
       </c>
       <c r="O11" s="14" t="str">
         <f t="array" aca="1" ref="O11:R12" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N11))</f>
@@ -3418,11 +3426,11 @@
       <c r="N12" s="18"/>
       <c r="O12" s="24">
         <f ca="1"/>
-        <v>2.5433445467056899E-2</v>
+        <v>5.0093977234502103E-2</v>
       </c>
       <c r="P12" s="16">
         <f ca="1"/>
-        <v>-16673.006397660563</v>
+        <v>-1369.2584245728942</v>
       </c>
       <c r="Q12" s="16">
         <f ca="1"/>
@@ -3430,7 +3438,7 @@
       </c>
       <c r="R12" s="16">
         <f ca="1"/>
-        <v>-62.603914676779667</v>
+        <v>-61.776985699177246</v>
       </c>
       <c r="S12" s="1" t="str">
         <f ca="1"/>
@@ -3463,15 +3471,15 @@
       </c>
       <c r="F13" s="13">
         <f ca="1">F11</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G13" s="13">
         <f ca="1">G11</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="H13" s="13">
         <f ca="1">H11+5</f>
-        <v>43332</v>
+        <v>43759</v>
       </c>
       <c r="I13" s="12" t="str">
         <f>I11</f>
@@ -3494,7 +3502,7 @@
       </c>
       <c r="N13" s="12" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M13,D13,$S$2:$S$5,I13,F13,$V$3:$W$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0006.LOCAL_USER.2018-04-27</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0006.LOCAL_USER.2019-06-28</v>
       </c>
       <c r="O13" s="14" t="str">
         <f t="array" aca="1" ref="O13:R14" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N13))</f>
@@ -3541,11 +3549,11 @@
       <c r="N14" s="18"/>
       <c r="O14" s="24">
         <f ca="1"/>
-        <v>2.5438277123727655E-2</v>
+        <v>5.0122769261125785E-2</v>
       </c>
       <c r="P14" s="16">
         <f ca="1"/>
-        <v>-21683.78297935077</v>
+        <v>-2466.2022065277242</v>
       </c>
       <c r="Q14" s="16">
         <f ca="1"/>
@@ -3553,11 +3561,11 @@
       </c>
       <c r="R14" s="16">
         <f ca="1"/>
-        <v>-78.592429858324579</v>
+        <v>-77.528402400284889</v>
       </c>
       <c r="S14" s="1" t="str">
         <f ca="1"/>
-        <v>notionalamount</v>
+        <v>notionalAmount</v>
       </c>
       <c r="T14" s="1">
         <f ca="1"/>
@@ -3582,15 +3590,15 @@
       </c>
       <c r="F15" s="13">
         <f ca="1">F13</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G15" s="13">
         <f ca="1">G13</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="H15" s="13">
         <f ca="1">H13+5</f>
-        <v>43337</v>
+        <v>43764</v>
       </c>
       <c r="I15" s="12" t="str">
         <f>I13</f>
@@ -3613,7 +3621,7 @@
       </c>
       <c r="N15" s="12" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M15,D15,$S$2:$S$5,I15,F15,$V$3:$W$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0007.LOCAL_USER.2018-04-27</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0007.LOCAL_USER.2019-06-28</v>
       </c>
       <c r="O15" s="14" t="str">
         <f t="array" aca="1" ref="O15:R16" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N15))</f>
@@ -3645,7 +3653,7 @@
       </c>
       <c r="W15" s="26">
         <f ca="1"/>
-        <v>2.5419902510404907E-2</v>
+        <v>5.0013515322262288E-2</v>
       </c>
     </row>
     <row r="16" spans="2:23">
@@ -3664,11 +3672,11 @@
       <c r="N16" s="18"/>
       <c r="O16" s="24">
         <f ca="1"/>
-        <v>2.5443110089829846E-2</v>
+        <v>5.0151585003370636E-2</v>
       </c>
       <c r="P16" s="16">
         <f ca="1"/>
-        <v>-28111.286119170029</v>
+        <v>-4023.9395476598042</v>
       </c>
       <c r="Q16" s="16">
         <f ca="1"/>
@@ -3676,7 +3684,7 @@
       </c>
       <c r="R16" s="16">
         <f ca="1"/>
-        <v>-98.480330422771132</v>
+        <v>-97.114582242227954</v>
       </c>
       <c r="S16" s="1" t="str">
         <f ca="1"/>
@@ -3692,7 +3700,7 @@
       </c>
       <c r="W16" s="1">
         <f ca="1"/>
-        <v>-5610.9735254465859</v>
+        <v>412.94337749126998</v>
       </c>
     </row>
     <row r="17" spans="2:23" ht="15">
@@ -3713,15 +3721,15 @@
       </c>
       <c r="F17" s="13">
         <f ca="1">F15</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G17" s="13">
         <f ca="1">G15</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="H17" s="13">
         <f ca="1">H15+5</f>
-        <v>43342</v>
+        <v>43769</v>
       </c>
       <c r="I17" s="12" t="str">
         <f>I15</f>
@@ -3744,7 +3752,7 @@
       </c>
       <c r="N17" s="12" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M17,D17,$S$2:$S$5,I17,F17,$V$3:$W$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0008.LOCAL_USER.2018-04-27</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0008.LOCAL_USER.2019-06-28</v>
       </c>
       <c r="O17" s="14" t="str">
         <f t="array" aca="1" ref="O17:R18" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N17))</f>
@@ -3795,11 +3803,11 @@
       <c r="N18" s="18"/>
       <c r="O18" s="24">
         <f ca="1"/>
-        <v>2.5447944365779799E-2</v>
+        <v>5.0180424487043691E-2</v>
       </c>
       <c r="P18" s="16">
         <f ca="1"/>
-        <v>-36337.542312345009</v>
+        <v>-6198.0717563600329</v>
       </c>
       <c r="Q18" s="16">
         <f ca="1"/>
@@ -3807,7 +3815,7 @@
       </c>
       <c r="R18" s="16">
         <f ca="1"/>
-        <v>-123.18984489840739</v>
+        <v>-121.44080099152858</v>
       </c>
       <c r="S18" s="1" t="e">
         <f ca="1"/>
@@ -3823,7 +3831,7 @@
       </c>
       <c r="W18" s="1">
         <f ca="1"/>
-        <v>-24.6415232853563</v>
+        <v>-24.348180820181152</v>
       </c>
     </row>
     <row r="19" spans="2:23" ht="15">
@@ -3844,15 +3852,15 @@
       </c>
       <c r="F19" s="13">
         <f ca="1">F17</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G19" s="13">
         <f ca="1">G17</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="H19" s="13">
         <f ca="1">H17+5</f>
-        <v>43347</v>
+        <v>43774</v>
       </c>
       <c r="I19" s="12" t="str">
         <f>I17</f>
@@ -3875,7 +3883,7 @@
       </c>
       <c r="N19" s="12" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M19,D19,$S$2:$S$5,I19,F19,$V$3:$W$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0009.LOCAL_USER.2018-04-27</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0009.LOCAL_USER.2019-06-28</v>
       </c>
       <c r="O19" s="14" t="str">
         <f t="array" aca="1" ref="O19:R20" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N19))</f>
@@ -3918,11 +3926,11 @@
       <c r="N20" s="18"/>
       <c r="O20" s="24">
         <f ca="1"/>
-        <v>2.5452779952005841E-2</v>
+        <v>5.0209287737993387E-2</v>
       </c>
       <c r="P20" s="16">
         <f ca="1"/>
-        <v>-46843.852992832224</v>
+        <v>-9191.0022326919006</v>
       </c>
       <c r="Q20" s="16">
         <f ca="1"/>
@@ -3930,7 +3938,7 @@
       </c>
       <c r="R20" s="16">
         <f ca="1"/>
-        <v>-153.85659770978162</v>
+        <v>-151.62141274888799</v>
       </c>
       <c r="S20" s="1" t="e">
         <f ca="1"/>
@@ -3965,15 +3973,15 @@
       </c>
       <c r="F21" s="13">
         <f ca="1">F19</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G21" s="13">
         <f ca="1">G19</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="H21" s="13">
         <f ca="1">H19+5</f>
-        <v>43352</v>
+        <v>43779</v>
       </c>
       <c r="I21" s="12" t="str">
         <f>I19</f>
@@ -3996,7 +4004,7 @@
       </c>
       <c r="N21" s="12" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M21,D21,$S$2:$S$5,I21,F21,$V$3:$W$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0010.LOCAL_USER.2018-04-27</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0010.LOCAL_USER.2019-06-28</v>
       </c>
       <c r="O21" s="14" t="str">
         <f t="array" aca="1" ref="O21:R22" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N21))</f>
@@ -4031,11 +4039,11 @@
       <c r="N22" s="18"/>
       <c r="O22" s="24">
         <f ca="1"/>
-        <v>2.5457616848929224E-2</v>
+        <v>5.0238174782087128E-2</v>
       </c>
       <c r="P22" s="16">
         <f ca="1"/>
-        <v>-60235.846147992321</v>
+        <v>-13265.024134365589</v>
       </c>
       <c r="Q22" s="16">
         <f ca="1"/>
@@ -4043,11 +4051,11 @@
       </c>
       <c r="R22" s="16">
         <f ca="1"/>
-        <v>-191.87818962515291</v>
+        <v>-189.02735633077756</v>
       </c>
       <c r="W22" s="14">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetNPVWithSpecifiedCurves(M3,C3,I3,F3,V3:W3)</f>
-        <v>5610.9735254465859</v>
+        <v>-412.94337749126998</v>
       </c>
     </row>
     <row r="23" spans="2:23" ht="15">
@@ -4068,15 +4076,15 @@
       </c>
       <c r="F23" s="13">
         <f ca="1">F21</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G23" s="13">
         <f ca="1">G21</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="H23" s="13">
         <f ca="1">H21+5</f>
-        <v>43357</v>
+        <v>43784</v>
       </c>
       <c r="I23" s="13" t="str">
         <f>I21</f>
@@ -4099,7 +4107,7 @@
       </c>
       <c r="N23" s="12" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M23,D23,$S$2:$S$5,I23,F23,$V$3:$W$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0011.LOCAL_USER.2018-04-27</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0011.LOCAL_USER.2019-06-28</v>
       </c>
       <c r="O23" s="14" t="str">
         <f t="array" aca="1" ref="O23:R24" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N23))</f>
@@ -4119,7 +4127,7 @@
       </c>
       <c r="W23" s="1">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetParRateWithSpecifiedCurves(M3,C3,F3,V3:W3)</f>
-        <v>2.5419902510404907E-2</v>
+        <v>5.0013515322262288E-2</v>
       </c>
     </row>
     <row r="24" spans="2:23">
@@ -4138,11 +4146,11 @@
       <c r="N24" s="18"/>
       <c r="O24" s="24">
         <f ca="1"/>
-        <v>2.5462455056973622E-2</v>
+        <v>5.0267085645235313E-2</v>
       </c>
       <c r="P24" s="16">
         <f ca="1"/>
-        <v>-77274.701328044059</v>
+        <v>-18758.887650222954</v>
       </c>
       <c r="Q24" s="16">
         <f ca="1"/>
@@ -4150,7 +4158,7 @@
       </c>
       <c r="R24" s="16">
         <f ca="1"/>
-        <v>-238.97369981706171</v>
+        <v>-235.34432110866967</v>
       </c>
     </row>
     <row r="25" spans="2:23" ht="15">
@@ -4171,15 +4179,15 @@
       </c>
       <c r="F25" s="13">
         <f ca="1">F23</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G25" s="13">
         <f ca="1">G23</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="H25" s="13">
         <f ca="1">H23+5</f>
-        <v>43362</v>
+        <v>43789</v>
       </c>
       <c r="I25" s="13" t="str">
         <f>I23</f>
@@ -4202,7 +4210,7 @@
       </c>
       <c r="N25" s="12" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M25,D25,$S$2:$S$5,I25,F25,$V$3:$W$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0012.LOCAL_USER.2018-04-27</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0012.LOCAL_USER.2019-06-28</v>
       </c>
       <c r="O25" s="14" t="str">
         <f t="array" aca="1" ref="O25:R26" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N25))</f>
@@ -4237,11 +4245,11 @@
       <c r="N26" s="18"/>
       <c r="O26" s="24">
         <f ca="1"/>
-        <v>2.5467294576556911E-2</v>
+        <v>5.0296020353378511E-2</v>
       </c>
       <c r="P26" s="16">
         <f ca="1"/>
-        <v>-98916.039934938963</v>
+        <v>-26108.738233350949</v>
       </c>
       <c r="Q26" s="16">
         <f ca="1"/>
@@ -4249,7 +4257,7 @@
       </c>
       <c r="R26" s="16">
         <f ca="1"/>
-        <v>-297.25654061699822</v>
+        <v>-292.6439403957761</v>
       </c>
     </row>
     <row r="27" spans="2:23" ht="15">
@@ -4270,15 +4278,15 @@
       </c>
       <c r="F27" s="13">
         <f ca="1">F25</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G27" s="13">
         <f ca="1">G25</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="H27" s="13">
         <f ca="1">H25+5</f>
-        <v>43367</v>
+        <v>43794</v>
       </c>
       <c r="I27" s="13" t="str">
         <f>I25</f>
@@ -4301,7 +4309,7 @@
       </c>
       <c r="N27" s="12" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M27,D27,$S$2:$S$5,I27,F27,$V$3:$W$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0013.LOCAL_USER.2018-04-27</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0013.LOCAL_USER.2019-06-28</v>
       </c>
       <c r="O27" s="14" t="str">
         <f t="array" aca="1" ref="O27:R28" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N27))</f>
@@ -4336,11 +4344,11 @@
       <c r="N28" s="18"/>
       <c r="O28" s="24">
         <f ca="1"/>
-        <v>2.5472135408107291E-2</v>
+        <v>5.032497893248282E-2</v>
       </c>
       <c r="P28" s="16">
         <f ca="1"/>
-        <v>-126358.32737994679</v>
+        <v>-35874.539043749755</v>
       </c>
       <c r="Q28" s="16">
         <f ca="1"/>
@@ -4348,7 +4356,7 @@
       </c>
       <c r="R28" s="16">
         <f ca="1"/>
-        <v>-369.32363286260107</v>
+        <v>-363.47090235005044</v>
       </c>
     </row>
     <row r="29" spans="2:23" ht="15">
@@ -4369,15 +4377,15 @@
       </c>
       <c r="F29" s="13">
         <f ca="1">F27</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G29" s="13">
         <f ca="1">G27</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="H29" s="13">
         <f ca="1">H27+5</f>
-        <v>43372</v>
+        <v>43799</v>
       </c>
       <c r="I29" s="13" t="str">
         <f>I27</f>
@@ -4400,7 +4408,7 @@
       </c>
       <c r="N29" s="12" t="str">
         <f ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(M29,D29,$S$2:$S$5,I29,F29,$V$3:$W$3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0014.LOCAL_USER.2018-04-27</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0014.LOCAL_USER.2019-06-28</v>
       </c>
       <c r="O29" s="14" t="str">
         <f t="array" aca="1" ref="O29:R30" ca="1">TRANSPOSE(_xll.HLV5r3.Financial.Cache.ViewValuationReport(N29))</f>
@@ -4435,11 +4443,11 @@
       <c r="N30" s="18"/>
       <c r="O30" s="24">
         <f ca="1"/>
-        <v>2.5476977552049286E-2</v>
+        <v>5.0353961408557094E-2</v>
       </c>
       <c r="P30" s="16">
         <f ca="1"/>
-        <v>-161103.07158187212</v>
+        <v>-48773.36674949032</v>
       </c>
       <c r="Q30" s="16">
         <f ca="1"/>
@@ -4447,7 +4455,7 @@
       </c>
       <c r="R30" s="16">
         <f ca="1"/>
-        <v>-458.36452431057961</v>
+        <v>-450.9495044947177</v>
       </c>
     </row>
     <row r="31" spans="2:23">
@@ -4864,7 +4872,7 @@
       </c>
       <c r="B2" s="1">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetNPVWithSpecifiedCurves(B23,B12,B18,B15,H3:I3)</f>
-        <v>668.08449063219086</v>
+        <v>1604.4226650595408</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15">
@@ -4873,7 +4881,7 @@
       </c>
       <c r="B3" s="1">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetParRateWithSpecifiedCurves(B23,B12,B15,H3:I3)</f>
-        <v>7.0202426453313371E-2</v>
+        <v>7.016378201484344E-2</v>
       </c>
       <c r="H3" s="1" t="str">
         <f t="array" aca="1" ref="H3:H13" ca="1">_xll.HLV5r3.Financial.Cache.GetRequiredCurves(B23)</f>
@@ -4903,7 +4911,7 @@
       </c>
       <c r="F5" s="19">
         <f ca="1"/>
-        <v>43219</v>
+        <v>43646</v>
       </c>
       <c r="H5" s="1" t="str">
         <f ca="1"/>
@@ -4940,7 +4948,7 @@
       </c>
       <c r="F7" s="19">
         <f ca="1"/>
-        <v>43309</v>
+        <v>43736</v>
       </c>
       <c r="H7" s="1" t="str">
         <f ca="1"/>
@@ -5030,7 +5038,7 @@
       </c>
       <c r="E12" s="1" t="str">
         <f ca="1"/>
-        <v>notionalamount</v>
+        <v>notionalAmount</v>
       </c>
       <c r="F12" s="29">
         <f ca="1"/>
@@ -5083,7 +5091,7 @@
       </c>
       <c r="B15" s="20">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="E15" s="1" t="str">
         <f ca="1"/>
@@ -5100,7 +5108,7 @@
       </c>
       <c r="B16" s="20">
         <f ca="1">B15+2</f>
-        <v>43219</v>
+        <v>43646</v>
       </c>
       <c r="E16" s="1" t="e">
         <f ca="1"/>
@@ -5117,7 +5125,7 @@
       </c>
       <c r="B17" s="20">
         <f ca="1">B16+90</f>
-        <v>43309</v>
+        <v>43736</v>
       </c>
       <c r="E17" s="1" t="e">
         <f ca="1"/>
@@ -5196,7 +5204,7 @@
       </c>
       <c r="B24" s="1" t="str">
         <f t="array" aca="1" ref="B24" ca="1">_xll.HLV5r3.Financial.Cache.ValueTrade(B23,B12,A2:A8,B18,B15,H3:I3)</f>
-        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0001.LOCAL_USER.2018-04-27</v>
+        <v>ValuationReport.LOCAL_USER.SpreadSheet.termDeposit.t0001.LOCAL_USER.2019-06-28</v>
       </c>
       <c r="F24" s="19"/>
     </row>
@@ -5210,7 +5218,7 @@
       </c>
       <c r="C25" s="28">
         <f ca="1"/>
-        <v>2.5419902510404907E-2</v>
+        <v>5.0013515322262288E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -5223,7 +5231,7 @@
       </c>
       <c r="C26" s="21">
         <f ca="1"/>
-        <v>-5610.9735254465859</v>
+        <v>412.94337749126998</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -5246,7 +5254,7 @@
       </c>
       <c r="C28" s="25">
         <f ca="1"/>
-        <v>-24.6415232853563</v>
+        <v>-24.348180820181152</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -5839,7 +5847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -5879,7 +5887,7 @@
       </c>
       <c r="G5" s="19">
         <f ca="1"/>
-        <v>43219</v>
+        <v>43646</v>
       </c>
       <c r="I5" s="1" t="str">
         <f ca="1"/>
@@ -5907,7 +5915,7 @@
       </c>
       <c r="G7" s="19">
         <f ca="1"/>
-        <v>43309</v>
+        <v>43736</v>
       </c>
       <c r="I7" s="1" t="str">
         <f ca="1"/>
@@ -5997,7 +6005,7 @@
       </c>
       <c r="F12" s="1" t="str">
         <f ca="1"/>
-        <v>notionalamount</v>
+        <v>notionalAmount</v>
       </c>
       <c r="G12" s="1">
         <f ca="1"/>
@@ -6050,7 +6058,7 @@
       </c>
       <c r="B15" s="20">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="F15" s="1" t="str">
         <f ca="1"/>
@@ -6067,7 +6075,7 @@
       </c>
       <c r="B16" s="20">
         <f ca="1">B15+2</f>
-        <v>43219</v>
+        <v>43646</v>
       </c>
       <c r="F16" s="1" t="e">
         <f ca="1"/>
@@ -6084,7 +6092,7 @@
       </c>
       <c r="B17" s="20">
         <f ca="1">B16+90</f>
-        <v>43309</v>
+        <v>43736</v>
       </c>
       <c r="F17" s="1" t="e">
         <f ca="1"/>
@@ -6149,7 +6157,7 @@
       </c>
       <c r="G22" s="19">
         <f ca="1"/>
-        <v>43219</v>
+        <v>43646</v>
       </c>
       <c r="H22" s="1" t="str">
         <f ca="1"/>
@@ -6190,7 +6198,7 @@
       </c>
       <c r="G23" s="19">
         <f ca="1"/>
-        <v>43309</v>
+        <v>43736</v>
       </c>
       <c r="H23" s="1" t="str">
         <f ca="1"/>
@@ -6227,7 +6235,7 @@
       </c>
       <c r="G24" s="19">
         <f ca="1"/>
-        <v>43309</v>
+        <v>43736</v>
       </c>
       <c r="H24" s="1" t="str">
         <f ca="1"/>
@@ -6438,7 +6446,7 @@
       </c>
       <c r="B32" s="1">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetNPVWithSpecifiedCurves(B23,B12,B18,B15,I3:J3)</f>
-        <v>5642.5050228239297</v>
+        <v>-378.25290642159615</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6447,7 +6455,7 @@
       </c>
       <c r="B33" s="1">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetParRateWithSpecifiedCurves(B23,B12,B15,I3:J3)</f>
-        <v>2.5416556595238785E-2</v>
+        <v>5.0000032359657581E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6458,11 +6466,11 @@
     <row r="36" spans="1:2">
       <c r="A36" s="21">
         <f ca="1">B36*SUM(I23:I24)</f>
-        <v>1005503.2830203773</v>
+        <v>999077.44802118803</v>
       </c>
       <c r="B36" s="1">
         <f ca="1">_xll.HLV5r3.Financial.Cache.GetValue(J3,B17)</f>
-        <v>0.99363358081194431</v>
+        <v>0.98728360110748048</v>
       </c>
     </row>
   </sheetData>
